--- a/newPointConversion.xlsx
+++ b/newPointConversion.xlsx
@@ -193,13 +193,13 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.614297960035675</v>
+        <v>5.55957035782384</v>
       </c>
       <c r="D2" t="n">
-        <v>3.3516201923337374</v>
+        <v>3.2833996317187752</v>
       </c>
       <c r="E2" t="n">
-        <v>2.4315891641972898</v>
+        <v>2.382932585419417</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -216,13 +216,13 @@
         <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>6.594842770178344</v>
+        <v>6.54185186242503</v>
       </c>
       <c r="D3" t="n">
-        <v>4.037505146201747</v>
+        <v>3.9657371533093344</v>
       </c>
       <c r="E3" t="n">
-        <v>2.9459313912597374</v>
+        <v>2.894539959605613</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -239,13 +239,13 @@
         <v>2.0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.739501099997614</v>
+        <v>7.690500552856783</v>
       </c>
       <c r="D4" t="n">
-        <v>4.860184640542709</v>
+        <v>4.786328534685413</v>
       </c>
       <c r="E4" t="n">
-        <v>3.5670656076948415</v>
+        <v>3.5139954131368167</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -262,13 +262,13 @@
         <v>3.0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.072994375071254</v>
+        <v>9.030895999031085</v>
       </c>
       <c r="D5" t="n">
-        <v>5.845321544692106</v>
+        <v>5.771549454898395</v>
       </c>
       <c r="E5" t="n">
-        <v>4.316222962926419</v>
+        <v>4.263082128392903</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -285,13 +285,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" t="n">
-        <v>10.622706028238992</v>
+        <v>10.591194465656207</v>
       </c>
       <c r="D6" t="n">
-        <v>7.022656443890596</v>
+        <v>6.9520506145658745</v>
       </c>
       <c r="E6" t="n">
-        <v>5.218412583048959</v>
+        <v>5.167528373482955</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -308,13 +308,13 @@
         <v>5.0</v>
       </c>
       <c r="C7" t="n">
-        <v>12.418537236845129</v>
+        <v>12.402183288493662</v>
       </c>
       <c r="D7" t="n">
-        <v>8.426312965558857</v>
+        <v>8.36309306866465</v>
       </c>
       <c r="E7" t="n">
-        <v>6.302882515606322</v>
+        <v>6.2575016477617424</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -331,13 +331,13 @@
         <v>6.0</v>
       </c>
       <c r="C8" t="n">
-        <v>14.492541793400715</v>
+        <v>14.49690249865575</v>
       </c>
       <c r="D8" t="n">
-        <v>10.094948051869167</v>
+        <v>10.044721775094256</v>
       </c>
       <c r="E8" t="n">
-        <v>7.603529130006825</v>
+        <v>7.568050756110656</v>
       </c>
       <c r="F8" t="n">
         <v>0.09302325581395349</v>
@@ -354,16 +354,16 @@
         <v>7.0</v>
       </c>
       <c r="C9" t="n">
-        <v>16.87825311717337</v>
+        <v>16.90994062258605</v>
       </c>
       <c r="D9" t="n">
-        <v>12.071637516008682</v>
+        <v>12.041659194971</v>
       </c>
       <c r="E9" t="n">
-        <v>9.159184350234472</v>
+        <v>9.139420125150233</v>
       </c>
       <c r="F9" t="n">
-        <v>0.37209302325581395</v>
+        <v>0.46511627906976744</v>
       </c>
       <c r="G9" t="s">
         <v>30</v>
@@ -377,16 +377,16 @@
         <v>8.0</v>
       </c>
       <c r="C10" t="n">
-        <v>19.609598117512572</v>
+        <v>19.676291704023065</v>
       </c>
       <c r="D10" t="n">
-        <v>14.403344822180209</v>
+        <v>14.402754028704424</v>
       </c>
       <c r="E10" t="n">
-        <v>11.0136753582878</v>
+        <v>11.017122610248775</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8604651162790697</v>
+        <v>1.7674418604651163</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -400,16 +400,16 @@
         <v>9.0</v>
       </c>
       <c r="C11" t="n">
-        <v>22.719277634120616</v>
+        <v>22.82964430152682</v>
       </c>
       <c r="D11" t="n">
-        <v>17.13977106663699</v>
+        <v>17.17976476580134</v>
       </c>
       <c r="E11" t="n">
-        <v>13.215505969098606</v>
+        <v>13.251606982720187</v>
       </c>
       <c r="F11" t="n">
-        <v>1.7674418604651163</v>
+        <v>1.9534883720930232</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
@@ -423,16 +423,16 @@
         <v>10.0</v>
       </c>
       <c r="C12" t="n">
-        <v>26.236487501282102</v>
+        <v>26.399967144729843</v>
       </c>
       <c r="D12" t="n">
-        <v>20.331331370468664</v>
+        <v>20.425198937085476</v>
       </c>
       <c r="E12" t="n">
-        <v>15.81695277644698</v>
+        <v>15.897294201557099</v>
       </c>
       <c r="F12" t="n">
-        <v>6.6976744186046515</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -446,13 +446,13 @@
         <v>11.0</v>
       </c>
       <c r="C13" t="n">
-        <v>30.183867355473517</v>
+        <v>30.410270777203397</v>
       </c>
       <c r="D13" t="n">
-        <v>24.025958360187104</v>
+        <v>24.188879233608173</v>
       </c>
       <c r="E13" t="n">
-        <v>18.87230565517335</v>
+        <v>19.01068608573163</v>
       </c>
       <c r="F13" t="n">
         <v>8.465116279069768</v>
@@ -469,16 +469,16 @@
         <v>12.0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.57360974166072</v>
+        <v>34.87247503648972</v>
       </c>
       <c r="D14" t="n">
-        <v>28.264418167014295</v>
+        <v>28.512891000443773</v>
       </c>
       <c r="E14" t="n">
-        <v>22.43492066564444</v>
+        <v>22.647181780321258</v>
       </c>
       <c r="F14" t="n">
-        <v>8.186046511627906</v>
+        <v>8.093023255813954</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -492,16 +492,16 @@
         <v>13.0</v>
       </c>
       <c r="C15" t="n">
-        <v>39.402757582938804</v>
+        <v>39.782418342522476</v>
       </c>
       <c r="D15" t="n">
-        <v>33.07387381058737</v>
+        <v>33.42462263790965</v>
       </c>
       <c r="E15" t="n">
-        <v>26.552713690674455</v>
+        <v>26.856194216759523</v>
       </c>
       <c r="F15" t="n">
-        <v>9.674418604651162</v>
+        <v>9.86046511627907</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -515,16 +515,16 @@
         <v>14.0</v>
       </c>
       <c r="C16" t="n">
-        <v>44.64788351412528</v>
+        <v>45.114228460091525</v>
       </c>
       <c r="D16" t="n">
-        <v>38.4595978714148</v>
+        <v>38.92780207708177</v>
       </c>
       <c r="E16" t="n">
-        <v>31.261741097302632</v>
+        <v>31.674181948263424</v>
       </c>
       <c r="F16" t="n">
-        <v>9.488372093023257</v>
+        <v>10.232558139534884</v>
       </c>
       <c r="G16" t="s">
         <v>31</v>
@@ -538,16 +538,16 @@
         <v>15.0</v>
       </c>
       <c r="C17" t="n">
-        <v>50.259596441701014</v>
+        <v>50.81455347583051</v>
       </c>
       <c r="D17" t="n">
-        <v>44.395089595829326</v>
+        <v>44.991837545309856</v>
       </c>
       <c r="E17" t="n">
-        <v>36.57764661260353</v>
+        <v>37.115367461627955</v>
       </c>
       <c r="F17" t="n">
-        <v>11.348837209302326</v>
+        <v>10.69767441860465</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -561,16 +561,16 @@
         <v>16.0</v>
       </c>
       <c r="C18" t="n">
-        <v>56.157661039100795</v>
+        <v>56.797526917487254</v>
       </c>
       <c r="D18" t="n">
-        <v>50.811460945997375</v>
+        <v>51.540468329431846</v>
       </c>
       <c r="E18" t="n">
-        <v>42.485081484434716</v>
+        <v>43.16029357385145</v>
       </c>
       <c r="F18" t="n">
-        <v>10.13953488372093</v>
+        <v>10.604651162790697</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -584,16 +584,16 @@
         <v>17.0</v>
       </c>
       <c r="C19" t="n">
-        <v>62.227914118021154</v>
+        <v>62.941774829925336</v>
       </c>
       <c r="D19" t="n">
-        <v>57.587854907438675</v>
+        <v>58.44175405576697</v>
       </c>
       <c r="E19" t="n">
-        <v>48.92581999459843</v>
+        <v>49.74307946623651</v>
       </c>
       <c r="F19" t="n">
-        <v>8.744186046511627</v>
+        <v>9.30232558139535</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -607,16 +607,16 @@
         <v>18.0</v>
       </c>
       <c r="C20" t="n">
-        <v>68.32253044739919</v>
+        <v>69.09116204747336</v>
       </c>
       <c r="D20" t="n">
-        <v>64.54577126162948</v>
+        <v>65.50267734334237</v>
       </c>
       <c r="E20" t="n">
-        <v>55.78726229339112</v>
+        <v>56.7393491112115</v>
       </c>
       <c r="F20" t="n">
-        <v>7.813953488372093</v>
+        <v>7.162790697674419</v>
       </c>
       <c r="G20" t="s">
         <v>32</v>
@@ -630,16 +630,16 @@
         <v>19.0</v>
       </c>
       <c r="C21" t="n">
-        <v>74.26536266906828</v>
+        <v>75.06112643065359</v>
       </c>
       <c r="D21" t="n">
-        <v>71.45120617538436</v>
+        <v>72.47273967326093</v>
       </c>
       <c r="E21" t="n">
-        <v>62.89430575165652</v>
+        <v>63.95825942486147</v>
       </c>
       <c r="F21" t="n">
-        <v>5.767441860465116</v>
+        <v>5.953488372093023</v>
       </c>
       <c r="G21" t="s">
         <v>32</v>
@@ -653,16 +653,16 @@
         <v>20.0</v>
       </c>
       <c r="C22" t="n">
-        <v>79.86380717132882</v>
+        <v>80.65208154432503</v>
       </c>
       <c r="D22" t="n">
-        <v>78.02884556673561</v>
+        <v>79.06114822736343</v>
       </c>
       <c r="E22" t="n">
-        <v>70.00890556604746</v>
+        <v>71.14350946926906</v>
       </c>
       <c r="F22" t="n">
-        <v>5.5813953488372094</v>
+        <v>4.930232558139535</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -676,16 +676,16 @@
         <v>21.0</v>
       </c>
       <c r="C23" t="n">
-        <v>84.92765183371478</v>
+        <v>85.67017650416847</v>
       </c>
       <c r="D23" t="n">
-        <v>83.99125551099426</v>
+        <v>84.97043087239172</v>
       </c>
       <c r="E23" t="n">
-        <v>76.8423814475706</v>
+        <v>77.9888625589458</v>
       </c>
       <c r="F23" t="n">
-        <v>2.604651162790698</v>
+        <v>2.2325581395348837</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -699,13 +699,13 @@
         <v>22.0</v>
       </c>
       <c r="C24" t="n">
-        <v>89.29347561887137</v>
+        <v>89.95353397480955</v>
       </c>
       <c r="D24" t="n">
-        <v>89.08215243153438</v>
+        <v>89.94457099047564</v>
       </c>
       <c r="E24" t="n">
-        <v>83.08456595307123</v>
+        <v>84.17226424442843</v>
       </c>
       <c r="F24" t="n">
         <v>1.2093023255813953</v>
@@ -722,16 +722,16 @@
         <v>23.0</v>
       </c>
       <c r="C25" t="n">
-        <v>92.85057805048625</v>
+        <v>93.39922182992994</v>
       </c>
       <c r="D25" t="n">
-        <v>93.1262903871625</v>
+        <v>93.82213353712422</v>
       </c>
       <c r="E25" t="n">
-        <v>88.44997970074753</v>
+        <v>89.40771117185558</v>
       </c>
       <c r="F25" t="n">
-        <v>0.18604651162790697</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
